--- a/X-imprimantes-infos.xlsx
+++ b/X-imprimantes-infos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Marque</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>OfficeJet Pro 7730</t>
+  </si>
+  <si>
+    <t>MF645Cx i-Sensys</t>
+  </si>
+  <si>
+    <t>MFC-L3770CDW</t>
+  </si>
+  <si>
+    <t>WF-4745TWF WorkForce Pro</t>
+  </si>
+  <si>
+    <t>MFC-L2730DW</t>
+  </si>
+  <si>
+    <t>Xerox</t>
+  </si>
+  <si>
+    <t>VersaLink</t>
+  </si>
+  <si>
+    <t>6515V/DNI WorkCentre</t>
   </si>
 </sst>
 </file>
@@ -467,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52:J53"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,19 +1767,41 @@
         <v>21</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="2">
+        <v>21</v>
+      </c>
+      <c r="I50" s="2">
+        <v>150</v>
+      </c>
+      <c r="J50" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L50" s="2">
+        <v>46</v>
+      </c>
+      <c r="M50" s="2">
+        <v>45.1</v>
+      </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="2">
+        <v>41.3</v>
+      </c>
       <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
+      <c r="Q50" s="2">
+        <v>309</v>
+      </c>
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
@@ -1784,19 +1827,41 @@
         <v>22</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="2">
+        <v>24</v>
+      </c>
+      <c r="I52" s="2">
+        <v>280</v>
+      </c>
+      <c r="J52" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="K52" s="2">
+        <v>600</v>
+      </c>
+      <c r="L52" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="M52" s="2">
+        <v>41</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" s="2">
+        <v>41.4</v>
+      </c>
       <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+      <c r="Q52" s="2">
+        <v>415</v>
+      </c>
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.25">
@@ -1822,19 +1887,41 @@
         <v>23</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2">
+        <v>24</v>
+      </c>
+      <c r="I54" s="2">
+        <v>500</v>
+      </c>
+      <c r="J54" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L54" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M54" s="2">
+        <v>42.5</v>
+      </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" s="2">
+        <v>33</v>
+      </c>
       <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+      <c r="Q54" s="2">
+        <v>234</v>
+      </c>
       <c r="R54" s="2"/>
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.25">
@@ -1860,19 +1947,41 @@
         <v>24</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="2">
+        <v>34</v>
+      </c>
+      <c r="I56" s="2">
+        <v>300</v>
+      </c>
+      <c r="J56" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="K56" s="2">
+        <v>600</v>
+      </c>
+      <c r="L56" s="2">
+        <v>41</v>
+      </c>
+      <c r="M56" s="2">
+        <v>39.85</v>
+      </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" s="2">
+        <v>31.85</v>
+      </c>
       <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
+      <c r="Q56" s="2">
+        <v>257</v>
+      </c>
       <c r="R56" s="2"/>
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.25">
@@ -1898,19 +2007,41 @@
         <v>25</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" s="2">
+        <v>620</v>
+      </c>
+      <c r="J58" s="2">
+        <v>69</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L58" s="2">
+        <v>67.08</v>
+      </c>
+      <c r="M58" s="2">
+        <v>59</v>
+      </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="O58" s="2">
+        <v>76.790000000000006</v>
+      </c>
       <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
+      <c r="Q58" s="2">
+        <v>1990</v>
+      </c>
       <c r="R58" s="2"/>
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.25">
@@ -1936,9 +2067,15 @@
         <v>26</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2123,6 +2260,353 @@
     </row>
   </sheetData>
   <mergeCells count="371">
+    <mergeCell ref="Q68:R69"/>
+    <mergeCell ref="Q56:R57"/>
+    <mergeCell ref="Q58:R59"/>
+    <mergeCell ref="Q60:R61"/>
+    <mergeCell ref="Q62:R63"/>
+    <mergeCell ref="Q64:R65"/>
+    <mergeCell ref="Q66:R67"/>
+    <mergeCell ref="Q44:R45"/>
+    <mergeCell ref="Q46:R47"/>
+    <mergeCell ref="Q48:R49"/>
+    <mergeCell ref="Q50:R51"/>
+    <mergeCell ref="Q52:R53"/>
+    <mergeCell ref="Q54:R55"/>
+    <mergeCell ref="Q38:R39"/>
+    <mergeCell ref="Q40:R41"/>
+    <mergeCell ref="Q42:R43"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="Q26:R27"/>
+    <mergeCell ref="Q28:R29"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="O68:P69"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:N67"/>
+    <mergeCell ref="O66:P67"/>
+    <mergeCell ref="O64:P65"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:N63"/>
+    <mergeCell ref="O62:P63"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:N61"/>
+    <mergeCell ref="O60:P61"/>
+    <mergeCell ref="O58:P59"/>
+    <mergeCell ref="Q32:R33"/>
+    <mergeCell ref="Q34:R35"/>
+    <mergeCell ref="Q36:R37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:N69"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:N59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="O54:P55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:N55"/>
+    <mergeCell ref="O50:P51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:N53"/>
+    <mergeCell ref="O52:P53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:N51"/>
+    <mergeCell ref="O46:P47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:N49"/>
+    <mergeCell ref="O48:P49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:N47"/>
+    <mergeCell ref="O42:P43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="O44:P45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="O40:P41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:N39"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:N37"/>
+    <mergeCell ref="O36:P37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:P33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="O22:P23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="C52:D53"/>
     <mergeCell ref="C50:D51"/>
     <mergeCell ref="C48:D49"/>
@@ -2147,353 +2631,6 @@
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="O22:P23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:P33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:N35"/>
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:N37"/>
-    <mergeCell ref="O36:P37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="O38:P39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="O40:P41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="O42:P43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="O44:P45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:N47"/>
-    <mergeCell ref="O46:P47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:N49"/>
-    <mergeCell ref="O48:P49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:N51"/>
-    <mergeCell ref="O50:P51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="O52:P53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:N55"/>
-    <mergeCell ref="O54:P55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:N59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:N65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M68:N69"/>
-    <mergeCell ref="O68:P69"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:N67"/>
-    <mergeCell ref="O66:P67"/>
-    <mergeCell ref="O64:P65"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:N63"/>
-    <mergeCell ref="O62:P63"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:N61"/>
-    <mergeCell ref="O60:P61"/>
-    <mergeCell ref="O58:P59"/>
-    <mergeCell ref="Q32:R33"/>
-    <mergeCell ref="Q34:R35"/>
-    <mergeCell ref="Q36:R37"/>
-    <mergeCell ref="Q38:R39"/>
-    <mergeCell ref="Q40:R41"/>
-    <mergeCell ref="Q42:R43"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="Q22:R23"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="Q26:R27"/>
-    <mergeCell ref="Q28:R29"/>
-    <mergeCell ref="Q30:R31"/>
-    <mergeCell ref="Q68:R69"/>
-    <mergeCell ref="Q56:R57"/>
-    <mergeCell ref="Q58:R59"/>
-    <mergeCell ref="Q60:R61"/>
-    <mergeCell ref="Q62:R63"/>
-    <mergeCell ref="Q64:R65"/>
-    <mergeCell ref="Q66:R67"/>
-    <mergeCell ref="Q44:R45"/>
-    <mergeCell ref="Q46:R47"/>
-    <mergeCell ref="Q48:R49"/>
-    <mergeCell ref="Q50:R51"/>
-    <mergeCell ref="Q52:R53"/>
-    <mergeCell ref="Q54:R55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/X-imprimantes-infos.xlsx
+++ b/X-imprimantes-infos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Marque</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>6515V/DNI WorkCentre</t>
+  </si>
+  <si>
+    <t>Lexmark</t>
+  </si>
+  <si>
+    <t>MC3326adwe</t>
+  </si>
+  <si>
+    <t>MC2535adwe</t>
+  </si>
+  <si>
+    <t>Kyocera</t>
+  </si>
+  <si>
+    <t>ECOSYS M5521cdw</t>
+  </si>
+  <si>
+    <t>OKI</t>
+  </si>
+  <si>
+    <t>MC883dn</t>
   </si>
 </sst>
 </file>
@@ -488,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60:H61"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,16 +2097,32 @@
       <c r="G60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="H60" s="2">
+        <v>28</v>
+      </c>
+      <c r="I60" s="2">
+        <v>300</v>
+      </c>
+      <c r="J60" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="2">
+        <v>50.6</v>
+      </c>
+      <c r="M60" s="2">
+        <v>42</v>
+      </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" s="2">
+        <v>50</v>
+      </c>
       <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
+      <c r="Q60" s="2">
+        <v>426</v>
+      </c>
       <c r="R60" s="2"/>
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.25">
@@ -2111,19 +2148,41 @@
         <v>27</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="2">
+        <v>24</v>
+      </c>
+      <c r="I62" s="2">
+        <v>250</v>
+      </c>
+      <c r="J62" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K62" s="2">
+        <v>600</v>
+      </c>
+      <c r="L62" s="2">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="M62" s="2">
+        <v>41.12</v>
+      </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" s="2">
+        <v>34.44</v>
+      </c>
       <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
+      <c r="Q62" s="2">
+        <v>283</v>
+      </c>
       <c r="R62" s="2"/>
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
@@ -2149,19 +2208,41 @@
         <v>28</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="2">
+        <v>33</v>
+      </c>
+      <c r="I64" s="2">
+        <v>250</v>
+      </c>
+      <c r="J64" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L64" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="M64" s="2">
+        <v>44.2</v>
+      </c>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" s="2">
+        <v>46.2</v>
+      </c>
       <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="Q64" s="2">
+        <v>457</v>
+      </c>
       <c r="R64" s="2"/>
     </row>
     <row r="65" spans="3:18" x14ac:dyDescent="0.25">
@@ -2187,19 +2268,41 @@
         <v>29</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="2">
+        <v>21</v>
+      </c>
+      <c r="I66" s="2">
+        <v>300</v>
+      </c>
+      <c r="J66" s="2">
+        <v>26</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="M66" s="2">
+        <v>41.7</v>
+      </c>
       <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="O66" s="2">
+        <v>49.5</v>
+      </c>
       <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+      <c r="Q66" s="2">
+        <v>322</v>
+      </c>
       <c r="R66" s="2"/>
     </row>
     <row r="67" spans="3:18" x14ac:dyDescent="0.25">
@@ -2225,19 +2328,41 @@
         <v>30</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="2">
+        <v>35</v>
+      </c>
+      <c r="I68" s="2">
+        <v>400</v>
+      </c>
+      <c r="J68" s="2">
+        <v>64</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L68" s="2">
+        <v>60</v>
+      </c>
+      <c r="M68" s="2">
+        <v>56.3</v>
+      </c>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" s="2">
+        <v>70</v>
+      </c>
       <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="Q68" s="2">
+        <v>1960</v>
+      </c>
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="3:18" x14ac:dyDescent="0.25">
@@ -2260,28 +2385,331 @@
     </row>
   </sheetData>
   <mergeCells count="371">
-    <mergeCell ref="Q68:R69"/>
-    <mergeCell ref="Q56:R57"/>
-    <mergeCell ref="Q58:R59"/>
-    <mergeCell ref="Q60:R61"/>
-    <mergeCell ref="Q62:R63"/>
-    <mergeCell ref="Q64:R65"/>
-    <mergeCell ref="Q66:R67"/>
-    <mergeCell ref="Q44:R45"/>
-    <mergeCell ref="Q46:R47"/>
-    <mergeCell ref="Q48:R49"/>
-    <mergeCell ref="Q50:R51"/>
-    <mergeCell ref="Q52:R53"/>
-    <mergeCell ref="Q54:R55"/>
-    <mergeCell ref="Q38:R39"/>
-    <mergeCell ref="Q40:R41"/>
-    <mergeCell ref="Q42:R43"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="Q22:R23"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="Q26:R27"/>
-    <mergeCell ref="Q28:R29"/>
-    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O22:P23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:P33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:N37"/>
+    <mergeCell ref="O36:P37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:N35"/>
+    <mergeCell ref="O38:P39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="O40:P41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:N39"/>
+    <mergeCell ref="O42:P43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="O44:P45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="O46:P47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:N49"/>
+    <mergeCell ref="O48:P49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:N47"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:N55"/>
+    <mergeCell ref="O50:P51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:N53"/>
+    <mergeCell ref="O52:P53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:N51"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="O54:P55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:N57"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:N59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:N65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:N69"/>
     <mergeCell ref="O68:P69"/>
     <mergeCell ref="Q8:R9"/>
     <mergeCell ref="Q10:R11"/>
@@ -2306,331 +2734,28 @@
     <mergeCell ref="Q32:R33"/>
     <mergeCell ref="Q34:R35"/>
     <mergeCell ref="Q36:R37"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:N65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M68:N69"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:N59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="O54:P55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:N55"/>
-    <mergeCell ref="O50:P51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="O52:P53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:N51"/>
-    <mergeCell ref="O46:P47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:N49"/>
-    <mergeCell ref="O48:P49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:N47"/>
-    <mergeCell ref="O42:P43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="O44:P45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="O38:P39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="O40:P41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:N37"/>
-    <mergeCell ref="O36:P37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:N35"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:P33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="O22:P23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="Q38:R39"/>
+    <mergeCell ref="Q40:R41"/>
+    <mergeCell ref="Q42:R43"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="Q26:R27"/>
+    <mergeCell ref="Q28:R29"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="Q68:R69"/>
+    <mergeCell ref="Q56:R57"/>
+    <mergeCell ref="Q58:R59"/>
+    <mergeCell ref="Q60:R61"/>
+    <mergeCell ref="Q62:R63"/>
+    <mergeCell ref="Q64:R65"/>
+    <mergeCell ref="Q66:R67"/>
+    <mergeCell ref="Q44:R45"/>
+    <mergeCell ref="Q46:R47"/>
+    <mergeCell ref="Q48:R49"/>
+    <mergeCell ref="Q50:R51"/>
+    <mergeCell ref="Q52:R53"/>
+    <mergeCell ref="Q54:R55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
